--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1478350.049466211</v>
+        <v>1476097.969755003</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27.59754090161729</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>162.1413128972389</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>10.27339943928794</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -865,25 +865,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771016</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>120.6088074159602</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>249.1524003704187</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>36.02761062924014</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.1058727494229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222606</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>41.35684107511781</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>23.4192814622066</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>138.6444210303391</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.5262552810678</v>
+        <v>50.17139158339732</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.2435806730856</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>74.95497330698053</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428122</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186448</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>158.0416127628558</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>112.668313093795</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788174922</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>22.44547853568561</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766838</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>148.8796904206629</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855436</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150248</v>
+        <v>1645.81552706783</v>
       </c>
       <c r="D2" t="n">
-        <v>942.9472709150248</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>942.9472709150248</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919558</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4483,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4513,25 +4513,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.46409084602</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1101.990851592603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565137</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624725</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179749</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>599.3250994197306</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>188.339194630123</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.54649786615</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.08073960507</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>941.4970410294717</v>
+        <v>980.0921127475357</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>811.1559298196288</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>661.039290407293</v>
       </c>
       <c r="E7" t="n">
         <v>624.6477645191717</v>
@@ -4720,19 +4720,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1735.608663915319</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1446.191493878358</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.201942980341</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y7" t="n">
-        <v>1123.145505859711</v>
+        <v>1161.740577577775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3283.831234664607</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3077.853487048829</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.710820256795</v>
+        <v>820.4128495803448</v>
       </c>
       <c r="C10" t="n">
-        <v>333.710820256795</v>
+        <v>651.4766666524379</v>
       </c>
       <c r="D10" t="n">
-        <v>333.710820256795</v>
+        <v>501.3600272401021</v>
       </c>
       <c r="E10" t="n">
-        <v>333.710820256795</v>
+        <v>353.446933657709</v>
       </c>
       <c r="F10" t="n">
-        <v>333.710820256795</v>
+        <v>206.5569861597986</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>206.5569861597986</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y10" t="n">
-        <v>333.710820256795</v>
+        <v>1002.061314410584</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>738.788911791386</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972546</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211833</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579364</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373477</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336517</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438499</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>982.1492342949692</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5428,58 +5428,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2371.250989330786</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X16" t="n">
-        <v>1394.184733704551</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1173.392154561021</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,28 +5516,28 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121639</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121639</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121639</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270438</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6124,16 +6124,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,28 +6145,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
         <v>555.8158034133954</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>1091.10905366816</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>922.1728707402528</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>772.0562313279171</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>624.143137745524</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>477.2531902476136</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>1272.757518498399</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597574</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597574</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597574</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908938</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.10824923516</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258101</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602299</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396412</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359451</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614341</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317904</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400694</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487565</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510506</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854704</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648817</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138393</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703091</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.30572490086945</v>
+        <v>129.66058859854</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.58839950885167</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>106.071312694664</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194267</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>32.8926045705993</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.48252552941301</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986324</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347563</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>264.0775198009054</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194322</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917799.0280914539</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
@@ -26323,25 +26323,25 @@
         <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
@@ -26350,10 +26350,10 @@
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1013271.703181941</v>
       </c>
       <c r="C6" t="n">
+        <v>315473.042545651</v>
+      </c>
+      <c r="D6" t="n">
         <v>315473.0425456513</v>
       </c>
-      <c r="D6" t="n">
-        <v>315473.0425456511</v>
-      </c>
       <c r="E6" t="n">
-        <v>67374.54488821021</v>
+        <v>67339.80696277354</v>
       </c>
       <c r="F6" t="n">
-        <v>392787.0066955652</v>
+        <v>392752.2687701301</v>
       </c>
       <c r="G6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="H6" t="n">
-        <v>392787.0066955653</v>
+        <v>392752.2687701298</v>
       </c>
       <c r="I6" t="n">
-        <v>392787.0066955657</v>
+        <v>392752.2687701298</v>
       </c>
       <c r="J6" t="n">
-        <v>175255.8042982881</v>
+        <v>175221.0663728522</v>
       </c>
       <c r="K6" t="n">
-        <v>392787.0066955656</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="L6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="M6" t="n">
-        <v>307731.9787600535</v>
+        <v>307697.2408346177</v>
       </c>
       <c r="N6" t="n">
-        <v>392787.0066955654</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="O6" t="n">
-        <v>392787.0066955653</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="P6" t="n">
-        <v>392787.0066955655</v>
+        <v>392752.2687701296</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>327.0855007190656</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>244.7347328444725</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>169.5585807426494</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>290.3129182374932</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>137.0855382856349</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>110.406352017329</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.4787806026719</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194509</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>67.83092071305802</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>142.6065267968216</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.110593883981721</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950798</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510266</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.76383318074956</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>431.6758624684114</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366964</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010443</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096303</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295242</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
